--- a/pag190ejer1.xlsx
+++ b/pag190ejer1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242E4C7D-835D-4598-BC63-88B97D5143AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t xml:space="preserve">pasivo </t>
   </si>
@@ -51,18 +52,29 @@
   </si>
   <si>
     <t>neto</t>
+  </si>
+  <si>
+    <t>Partrimonio neto</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>total pasivo</t>
+  </si>
+  <si>
+    <t>prestamo en el banco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,17 +110,16 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -119,6 +130,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -165,7 +184,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +216,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +268,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,167 +461,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="1.42578125" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="13" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O1" s="4"/>
-      <c r="P1" s="3">
-        <f>SUM(O2:O6)</f>
-        <v>14000</v>
-      </c>
       <c r="Q1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="R1" s="4"/>
-      <c r="S1" s="3">
-        <f>SUM(R2:R5)</f>
-        <v>7000</v>
-      </c>
-      <c r="U1" s="3">
-        <f>P1-S1</f>
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="1">
         <v>1000</v>
       </c>
       <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="R2" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="1">
         <v>2500</v>
       </c>
       <c r="Q3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N4" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="2">
-        <v>5000</v>
-      </c>
-      <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:21">
+      <c r="O4" s="1">
+        <v>3000</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="N5" t="s">
         <v>6</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="1">
         <v>1500</v>
       </c>
-      <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="Q5" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="2"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1000</v>
       </c>
       <c r="N6" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="2">
+      <c r="O6" s="1">
         <v>4000</v>
       </c>
-      <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="Q6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="B7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" s="2">
+        <f>SUM(R2:R6)</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>2500</v>
       </c>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="N8" t="s">
+        <v>13</v>
+      </c>
+      <c r="O8" s="2">
+        <f>SUM(O2:O7)</f>
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="B9" s="1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>1500</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>5000</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
         <v>5000</v>
       </c>
     </row>
@@ -581,12 +675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
